--- a/gpt3_logs/topic_lengths.xlsx
+++ b/gpt3_logs/topic_lengths.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Synthetic-data-generation\gpt3_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7D416E-4D21-4594-8999-58790F97167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7876784-0F0A-4A30-A44D-C6D42FE9FE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topic_lengths" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,130 +804,130 @@
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>asking for legal advice but Human says they need to call a lawyer</c:v>
+                  <c:v>breaking out of hyper-focus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>user wants to know how David works, she says they're an AI programmed in compassionate listening</c:v>
+                  <c:v>taking care of an old pet with medical issues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>loneliness from being single</c:v>
+                  <c:v>how to establish and maintain boundaries</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>difficult family members</c:v>
+                  <c:v>applying to university</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>pain from being LGBT and having to hide it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>suicide</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>postpartum depression</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stress from a medical quarantine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>drifting through life without a purpose</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>feeling like life is just a series of monotonous tasks</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>having an angry spouse</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sifting through old hurts</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>struggling with anxiety</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>how to raise emotionally healthy children</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>the user is sad and becomes suicidal but the counsellor gently encourages them to call a friend, a family member, or emergency services</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>navigating office politics</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>recovering from serious injuries</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>how to have difficult conversations with spouse</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>about a friend dying suddenly</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>learning to take care of oneself better</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>coping with depression</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>being a workaholic</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>asking for medical advice but the counsellor recommends they call a doctor</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>being a lonely retiree</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>caring for a senior with dementia</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>identifying and investigating complex emotions</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>asking for financial advice but Human says they should talk to an accountant</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
+                  <c:v>learning to eat better</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>grieving a death</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>coping with depression</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>trying to break an addiction</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>pain from being LGBT and having to hide it</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>taking care of a special needs child</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>stress from a medical quarantine</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>bored and looking for something to do</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>loneliness from being a foreigner in a new country</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>taking care of an old pet with medical issues</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>questioning gender and sexuality</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>sifting through old hurts</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>anger control issues</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>recovering from serious injuries</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>postpartum depression</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>family violence</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>caring for a senior with dementia</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>anger control issues</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>road rage</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>difficult family members</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>taking care of a special needs child</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>childhood trauma</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>how to raise emotionally healthy children</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>having an angry spouse</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>road rage</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>the user is sad and becomes suicidal but the counsellor gently encourages them to call a friend, a family member, or emergency services</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>drifting through life without a purpose</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>navigating office politics</c:v>
+                  <c:v>user wants to know how David works, she says they're an AI programmed in compassionate listening</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>suicide</c:v>
+                  <c:v>loneliness from being a foreigner in a new country</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>struggling with anxiety</c:v>
+                  <c:v>being a lonely retiree</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>about a friend dying suddenly</c:v>
+                  <c:v>questioning gender and sexuality</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>learning to take care of oneself better</c:v>
+                  <c:v>identifying and investigating complex emotions</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>feeling like life is just a series of monotonous tasks</c:v>
+                  <c:v>asking for medical advice but the counsellor recommends they call a doctor</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>learning to eat better</c:v>
+                  <c:v>loneliness from being single</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>how to establish and maintain boundaries</c:v>
+                  <c:v>trying to break an addiction</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>how to have difficult conversations with spouse</c:v>
+                  <c:v>bored and looking for something to do</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>applying to university</c:v>
+                  <c:v>asking for financial advice but Human says they should talk to an accountant</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>breaking out of hyper-focus</c:v>
+                  <c:v>asking for legal advice but Human says they need to call a lawyer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,130 +939,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>8.4</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.4</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.6</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.4</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.6</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.4</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.2</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.6</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,130 +1103,130 @@
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>asking for legal advice but Human says they need to call a lawyer</c:v>
+                  <c:v>breaking out of hyper-focus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>user wants to know how David works, she says they're an AI programmed in compassionate listening</c:v>
+                  <c:v>taking care of an old pet with medical issues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>loneliness from being single</c:v>
+                  <c:v>how to establish and maintain boundaries</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>difficult family members</c:v>
+                  <c:v>applying to university</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>pain from being LGBT and having to hide it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>suicide</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>postpartum depression</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stress from a medical quarantine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>drifting through life without a purpose</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>feeling like life is just a series of monotonous tasks</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>having an angry spouse</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sifting through old hurts</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>struggling with anxiety</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>how to raise emotionally healthy children</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>the user is sad and becomes suicidal but the counsellor gently encourages them to call a friend, a family member, or emergency services</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>navigating office politics</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>recovering from serious injuries</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>how to have difficult conversations with spouse</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>about a friend dying suddenly</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>learning to take care of oneself better</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>coping with depression</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>being a workaholic</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>asking for medical advice but the counsellor recommends they call a doctor</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>being a lonely retiree</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>caring for a senior with dementia</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>identifying and investigating complex emotions</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>asking for financial advice but Human says they should talk to an accountant</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
+                  <c:v>learning to eat better</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>grieving a death</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>coping with depression</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>trying to break an addiction</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>pain from being LGBT and having to hide it</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>taking care of a special needs child</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>stress from a medical quarantine</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>bored and looking for something to do</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>loneliness from being a foreigner in a new country</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>taking care of an old pet with medical issues</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>questioning gender and sexuality</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>sifting through old hurts</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>anger control issues</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>recovering from serious injuries</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>postpartum depression</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>family violence</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>caring for a senior with dementia</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>anger control issues</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>road rage</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>difficult family members</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>taking care of a special needs child</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>childhood trauma</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>how to raise emotionally healthy children</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>having an angry spouse</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>road rage</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>the user is sad and becomes suicidal but the counsellor gently encourages them to call a friend, a family member, or emergency services</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>drifting through life without a purpose</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>navigating office politics</c:v>
+                  <c:v>user wants to know how David works, she says they're an AI programmed in compassionate listening</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>suicide</c:v>
+                  <c:v>loneliness from being a foreigner in a new country</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>struggling with anxiety</c:v>
+                  <c:v>being a lonely retiree</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>about a friend dying suddenly</c:v>
+                  <c:v>questioning gender and sexuality</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>learning to take care of oneself better</c:v>
+                  <c:v>identifying and investigating complex emotions</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>feeling like life is just a series of monotonous tasks</c:v>
+                  <c:v>asking for medical advice but the counsellor recommends they call a doctor</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>learning to eat better</c:v>
+                  <c:v>loneliness from being single</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>how to establish and maintain boundaries</c:v>
+                  <c:v>trying to break an addiction</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>how to have difficult conversations with spouse</c:v>
+                  <c:v>bored and looking for something to do</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>applying to university</c:v>
+                  <c:v>asking for financial advice but Human says they should talk to an accountant</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>breaking out of hyper-focus</c:v>
+                  <c:v>asking for legal advice but Human says they need to call a lawyer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1238,130 +1238,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.446318512556001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44721359549995698</c:v>
+                  <c:v>3.7272386148873902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2030888081984501</c:v>
+                  <c:v>7.5806115611994596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4735767952260099</c:v>
+                  <c:v>8.2026068186089205</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.26014898870763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3422107489572603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4696507444964597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5091201248508002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9178762943344498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5429970816752396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7795862210493096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.75878176634032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6934363429570602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6497492477795896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8146119059461103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2678268764263603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0035698356056404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0637745771849705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9478470409140902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1556049961167103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.93390886515758</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1.76901434836065</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.80534186769688</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0510342691027099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2569043004249401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3425881623208098</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3560603574957999</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
+                  <c:v>7.3944181214507099</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2.5764501233470898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.93390886515758</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9641930905334202</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.26014898870763</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2783341421329699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5091201248508002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.51425667816111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.6113030105437298</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.7272386148873902</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7326781144428001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.75878176634032</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7844205739399199</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.0035698356056404</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4696507444964597</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.5891488406173604</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>2.2569043004249401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7844205739399199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8058150180968902</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4735767952260099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2783341421329699</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.6157624676638997</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.6497492477795896</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.7795862210493096</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.8058150180968902</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8146119059461103</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9178762943344498</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2678268764263603</c:v>
+                  <c:v>0.44721359549995698</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3422107489572603</c:v>
+                  <c:v>3.6113030105437298</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.6934363429570602</c:v>
+                  <c:v>2.0510342691027099</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9478470409140902</c:v>
+                  <c:v>3.7326781144428001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.1556049961167103</c:v>
+                  <c:v>2.3425881623208098</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.5429970816752396</c:v>
+                  <c:v>1.80534186769688</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.3944181214507099</c:v>
+                  <c:v>1.2030888081984501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.5806115611994596</c:v>
+                  <c:v>2.9641930905334202</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.0637745771849705</c:v>
+                  <c:v>3.51425667816111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.2026068186089205</c:v>
+                  <c:v>2.3560603574957999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.446318512556001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,14 +2117,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2448,11 +2448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C43"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,266 +2474,266 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>18.8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>18.446318512556001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>8.1999999999999993</v>
+        <v>17.2</v>
       </c>
       <c r="C3">
-        <v>0.44721359549995698</v>
+        <v>3.7272386148873902</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>6.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C4">
-        <v>1.2030888081984501</v>
+        <v>7.5806115611994596</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8.8000000000000007</v>
+        <v>14.6</v>
       </c>
       <c r="C5">
-        <v>1.4735767952260099</v>
+        <v>8.2026068186089205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>10.6</v>
+        <v>14.2</v>
       </c>
       <c r="C6">
-        <v>1.76901434836065</v>
+        <v>3.26014898870763</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>1.80534186769688</v>
+        <v>5.3422107489572603</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>7.8</v>
+        <v>13.6</v>
       </c>
       <c r="C8">
-        <v>2.0510342691027099</v>
+        <v>4.4696507444964597</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>9.6</v>
+        <v>12.8</v>
       </c>
       <c r="C9">
-        <v>2.2569043004249401</v>
+        <v>3.5091201248508002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>7.4</v>
+        <v>12.6</v>
       </c>
       <c r="C10">
-        <v>2.3425881623208098</v>
+        <v>4.9178762943344498</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>3.6</v>
+        <v>12.6</v>
       </c>
       <c r="C11">
-        <v>2.3560603574957999</v>
+        <v>6.5429970816752396</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>10.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="C12">
-        <v>2.5764501233470898</v>
+        <v>4.7795862210493096</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2.93390886515758</v>
+        <v>3.75878176634032</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>6.6</v>
+        <v>11.6</v>
       </c>
       <c r="C14">
-        <v>2.9641930905334202</v>
+        <v>5.6934363429570602</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>14.2</v>
+        <v>11.4</v>
       </c>
       <c r="C15">
-        <v>3.26014898870763</v>
+        <v>4.6497492477795896</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="C16">
-        <v>3.2783341421329699</v>
+        <v>4.8146119059461103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="C17">
-        <v>3.5091201248508002</v>
+        <v>5.2678268764263603</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>4.2</v>
+        <v>11.2</v>
       </c>
       <c r="C18">
-        <v>3.51425667816111</v>
+        <v>4.0035698356056404</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>8.1999999999999993</v>
+        <v>11.2</v>
       </c>
       <c r="C19">
-        <v>3.6113030105437298</v>
+        <v>8.0637745771849705</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>17.2</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>3.7272386148873902</v>
+        <v>5.9478470409140902</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>3.7326781144428001</v>
+        <v>6.1556049961167103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="C22">
-        <v>3.75878176634032</v>
+        <v>2.93390886515758</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="C23">
-        <v>3.7844205739399199</v>
+        <v>1.76901434836065</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="C24">
-        <v>4.0035698356056404</v>
+        <v>7.3944181214507099</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>13.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C25">
-        <v>4.4696507444964597</v>
+        <v>2.5764501233470898</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,195 +2749,195 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="C27">
-        <v>4.6157624676638997</v>
+        <v>2.2569043004249401</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>11.4</v>
+        <v>9.6</v>
       </c>
       <c r="C28">
-        <v>4.6497492477795896</v>
+        <v>3.7844205739399199</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>12.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C29">
-        <v>4.7795862210493096</v>
+        <v>4.8058150180968902</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>9.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C30">
-        <v>4.8058150180968902</v>
+        <v>1.4735767952260099</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="C31">
-        <v>4.8146119059461103</v>
+        <v>3.2783341421329699</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>12.6</v>
+        <v>8.4</v>
       </c>
       <c r="C32">
-        <v>4.9178762943344498</v>
+        <v>4.6157624676638997</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>11.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C33">
-        <v>5.2678268764263603</v>
+        <v>0.44721359549995698</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C34">
-        <v>5.3422107489572603</v>
+        <v>3.6113030105437298</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>11.6</v>
+        <v>7.8</v>
       </c>
       <c r="C35">
-        <v>5.6934363429570602</v>
+        <v>2.0510342691027099</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="C36">
-        <v>5.9478470409140902</v>
+        <v>3.7326781144428001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="C37">
-        <v>6.1556049961167103</v>
+        <v>2.3425881623208098</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>6.5429970816752396</v>
+        <v>1.80534186769688</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>10.4</v>
+        <v>6.6</v>
       </c>
       <c r="C39">
-        <v>7.3944181214507099</v>
+        <v>1.2030888081984501</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>16.600000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C40">
-        <v>7.5806115611994596</v>
+        <v>2.9641930905334202</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>11.2</v>
+        <v>4.2</v>
       </c>
       <c r="C41">
-        <v>8.0637745771849705</v>
+        <v>3.51425667816111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>14.6</v>
+        <v>3.6</v>
       </c>
       <c r="C42">
-        <v>8.2026068186089205</v>
+        <v>2.3560603574957999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>18.8</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>18.446318512556001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
-    <sortCondition ref="C2:C46"/>
-    <sortCondition descending="1" ref="B2:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+    <sortCondition descending="1" ref="B2:B43"/>
+    <sortCondition ref="C2:C43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
